--- a/21xt/03-wireless_strain_gauge/wsg1.0/WSG1.0BOMUS.xlsx
+++ b/21xt/03-wireless_strain_gauge/wsg1.0/WSG1.0BOMUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahmoudradwan/Desktop/bjr_kicad/21xt/03-wireless_strain_gauge/wsg1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0D34CF-D188-594A-A17F-D419E7063AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC181CB8-11AC-8342-A673-AC58196664C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="2860" windowWidth="28800" windowHeight="16400" xr2:uid="{F3592E67-5C68-0244-ABD1-689DD6B0812B}"/>
   </bookViews>
@@ -710,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1901016C-DF9D-2C40-AA5A-6ED2A00D3979}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G1" sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1329,6 +1329,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
